--- a/hardware/power-budget.xlsx
+++ b/hardware/power-budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FEE327-C3E2-4EFA-9AA7-02857C03B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45524DCD-7CF2-4F38-90BD-747513C7A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{3E2CB90E-95ED-4AD0-9A82-E3F0B11CDD0E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{3E2CB90E-95ED-4AD0-9A82-E3F0B11CDD0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>load</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>3.3V (mA)</t>
-  </si>
-  <si>
-    <t>20V (mA)</t>
   </si>
   <si>
     <t>HV (mA)</t>
@@ -84,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,16 +446,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CE49EB-84DB-4EFF-B06E-11A77DD0D585}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,32 +469,25 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2">
+        <f>D2*200/5/0.8</f>
+        <v>1679.9999999999995</v>
+      </c>
+      <c r="D2">
+        <f>12*(2.5+0.3)</f>
+        <v>33.599999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2">
-        <f>D2*20/5/0.9</f>
-        <v>1451.851851851852</v>
-      </c>
-      <c r="D2">
-        <f>210/20*E2/0.9</f>
-        <v>326.66666666666669</v>
-      </c>
-      <c r="E2">
-        <f>10*(2.5+0.3)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
       </c>
       <c r="B3">
         <f>C3</f>
@@ -507,9 +497,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <f>C4</f>
@@ -518,13 +508,13 @@
       <c r="C4">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -533,9 +523,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <f>C6</f>
@@ -545,9 +535,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <f>C7</f>
@@ -556,25 +546,25 @@
       <c r="C7">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>0.54</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>1711.601851851852</v>
+        <v>1939.7499999999995</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -582,14 +572,10 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>326.66666666666669</v>
+        <v>33.599999999999994</v>
       </c>
       <c r="E9">
         <f>SUM(E2:E8)</f>
-        <v>28</v>
-      </c>
-      <c r="F9">
-        <f>SUM(F2:F8)</f>
         <v>0.79</v>
       </c>
     </row>
